--- a/Synchrony_experiment_data.xlsx
+++ b/Synchrony_experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A547F96-E93D-5547-9EB0-8CD0546590BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892FABB-D0EB-3842-A9CE-A0307D2FB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="25040" windowHeight="13020" xr2:uid="{C97D8855-30DA-194A-B528-0604E33A9BF1}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:AB341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P233" sqref="P233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10031,7 +10031,7 @@
         <v>12</v>
       </c>
       <c r="J232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K232">
         <v>8</v>
@@ -10072,7 +10072,7 @@
         <v>12</v>
       </c>
       <c r="J233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K233">
         <v>8</v>
@@ -10113,7 +10113,7 @@
         <v>12</v>
       </c>
       <c r="J234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <v>8</v>
@@ -10154,7 +10154,7 @@
         <v>12</v>
       </c>
       <c r="J235">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K235">
         <v>8</v>
@@ -10195,7 +10195,7 @@
         <v>12</v>
       </c>
       <c r="J236">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <v>8</v>
@@ -10236,7 +10236,7 @@
         <v>12</v>
       </c>
       <c r="J237">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K237">
         <v>8</v>
@@ -10277,7 +10277,7 @@
         <v>12</v>
       </c>
       <c r="J238">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>8</v>
@@ -10318,7 +10318,7 @@
         <v>12</v>
       </c>
       <c r="J239">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K239">
         <v>8</v>
